--- a/docs/Sprint2_Burndown_StoryPoints.xlsx
+++ b/docs/Sprint2_Burndown_StoryPoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usu\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51295159-F0BF-4E48-8E58-AA06CBDA9EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52526005-FB2F-497F-BF60-E3EA2B5C92EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="720" windowWidth="19440" windowHeight="15000" xr2:uid="{71E7B6D4-73A6-4089-B73E-A5A1F384E014}"/>
   </bookViews>
@@ -247,70 +247,76 @@
           <c:cat>
             <c:numLit>
               <c:formatCode>General</c:formatCode>
-              <c:ptCount val="10"/>
+              <c:ptCount val="11"/>
               <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
                 <c:v>2</c:v>
               </c:pt>
-              <c:pt idx="1">
+              <c:pt idx="2">
                 <c:v>4</c:v>
               </c:pt>
-              <c:pt idx="2">
+              <c:pt idx="3">
                 <c:v>6</c:v>
               </c:pt>
-              <c:pt idx="3">
+              <c:pt idx="4">
                 <c:v>8</c:v>
               </c:pt>
-              <c:pt idx="4">
+              <c:pt idx="5">
                 <c:v>10</c:v>
               </c:pt>
-              <c:pt idx="5">
+              <c:pt idx="6">
                 <c:v>12</c:v>
               </c:pt>
-              <c:pt idx="6">
+              <c:pt idx="7">
                 <c:v>14</c:v>
               </c:pt>
-              <c:pt idx="7">
+              <c:pt idx="8">
                 <c:v>16</c:v>
               </c:pt>
-              <c:pt idx="8">
+              <c:pt idx="9">
                 <c:v>18</c:v>
               </c:pt>
-              <c:pt idx="9">
+              <c:pt idx="10">
                 <c:v>20</c:v>
               </c:pt>
             </c:numLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:f>Sheet1!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>11.63</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10.26</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>8.89</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>7.52</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6.15</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4.78</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3.41</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1.94</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -364,45 +370,48 @@
           <c:cat>
             <c:numLit>
               <c:formatCode>General</c:formatCode>
-              <c:ptCount val="10"/>
+              <c:ptCount val="11"/>
               <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
                 <c:v>2</c:v>
               </c:pt>
-              <c:pt idx="1">
+              <c:pt idx="2">
                 <c:v>4</c:v>
               </c:pt>
-              <c:pt idx="2">
+              <c:pt idx="3">
                 <c:v>6</c:v>
               </c:pt>
-              <c:pt idx="3">
+              <c:pt idx="4">
                 <c:v>8</c:v>
               </c:pt>
-              <c:pt idx="4">
+              <c:pt idx="5">
                 <c:v>10</c:v>
               </c:pt>
-              <c:pt idx="5">
+              <c:pt idx="6">
                 <c:v>12</c:v>
               </c:pt>
-              <c:pt idx="6">
+              <c:pt idx="7">
                 <c:v>14</c:v>
               </c:pt>
-              <c:pt idx="7">
+              <c:pt idx="8">
                 <c:v>16</c:v>
               </c:pt>
-              <c:pt idx="8">
+              <c:pt idx="9">
                 <c:v>18</c:v>
               </c:pt>
-              <c:pt idx="9">
+              <c:pt idx="10">
                 <c:v>20</c:v>
               </c:pt>
             </c:numLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$10</c:f>
+              <c:f>Sheet1!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>14.5</c:v>
                 </c:pt>
@@ -410,24 +419,27 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -502,35 +514,38 @@
                 <c:cat>
                   <c:numLit>
                     <c:formatCode>General</c:formatCode>
-                    <c:ptCount val="10"/>
+                    <c:ptCount val="11"/>
                     <c:pt idx="0">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
                       <c:v>2</c:v>
                     </c:pt>
-                    <c:pt idx="1">
+                    <c:pt idx="2">
                       <c:v>4</c:v>
                     </c:pt>
-                    <c:pt idx="2">
+                    <c:pt idx="3">
                       <c:v>6</c:v>
                     </c:pt>
-                    <c:pt idx="3">
+                    <c:pt idx="4">
                       <c:v>8</c:v>
                     </c:pt>
-                    <c:pt idx="4">
+                    <c:pt idx="5">
                       <c:v>10</c:v>
                     </c:pt>
-                    <c:pt idx="5">
+                    <c:pt idx="6">
                       <c:v>12</c:v>
                     </c:pt>
-                    <c:pt idx="6">
+                    <c:pt idx="7">
                       <c:v>14</c:v>
                     </c:pt>
-                    <c:pt idx="7">
+                    <c:pt idx="8">
                       <c:v>16</c:v>
                     </c:pt>
-                    <c:pt idx="8">
+                    <c:pt idx="9">
                       <c:v>18</c:v>
                     </c:pt>
-                    <c:pt idx="9">
+                    <c:pt idx="10">
                       <c:v>20</c:v>
                     </c:pt>
                   </c:numLit>
@@ -540,7 +555,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$2:$D$10</c15:sqref>
+                          <c15:sqref>Sheet1!$D$3:$D$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1326,15 +1341,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1659,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEC91C4-C9EE-453E-B55A-EA37505D2AE1}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,10 +1720,10 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>11.63</v>
+        <v>13.5</v>
       </c>
       <c r="F2">
         <v>14.5</v>
@@ -1725,10 +1740,10 @@
         <v>3.5</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>10.26</v>
+        <v>11.63</v>
       </c>
       <c r="F3">
         <v>14.5</v>
@@ -1745,13 +1760,13 @@
         <v>0.5</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>8.89</v>
+        <v>10.26</v>
       </c>
       <c r="F4">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1765,13 +1780,13 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>7.52</v>
+        <v>8.89</v>
       </c>
       <c r="F5">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1785,13 +1800,13 @@
         <v>1.5</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>6.15</v>
+        <v>7.52</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1805,13 +1820,13 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>4.78</v>
+        <v>6.15</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1825,10 +1840,10 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>3.41</v>
+        <v>4.78</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1845,13 +1860,13 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9">
-        <v>1.94</v>
+        <v>3.41</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1864,17 +1879,29 @@
         <v>14.5</v>
       </c>
       <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>1.94</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11">
         <v>20</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>